--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/90.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/90.xlsx
@@ -479,13 +479,13 @@
         <v>-0.03068923820292984</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.922746878532498</v>
+        <v>-1.922425778631753</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04322818827800166</v>
+        <v>0.04395695913116388</v>
       </c>
       <c r="G2" t="n">
-        <v>0.009515846737983533</v>
+        <v>0.01026980189708656</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.02908657593446304</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.788892292457088</v>
+        <v>-1.787941584907822</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.00674219676593127</v>
+        <v>-0.005972501415615234</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01159040393985784</v>
+        <v>0.01232704488862656</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.03703643091089388</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.760449766935184</v>
+        <v>-1.759150414150551</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.05013003384458473</v>
+        <v>-0.04958542322861469</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007616005658573603</v>
+        <v>0.008374682875040534</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.05393447218642255</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.785302741850961</v>
+        <v>-1.783813719762211</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08561157287694483</v>
+        <v>-0.08517556958034454</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03098074549516101</v>
+        <v>0.03187793639430241</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.07315097610203714</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.751144952899615</v>
+        <v>-1.749847961143663</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1442894316999132</v>
+        <v>-0.1440533288317181</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03640009332979928</v>
+        <v>0.03750662877207366</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.08640886715081529</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.609465917772219</v>
+        <v>-1.607972960635665</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1984136532049586</v>
+        <v>-0.1987379011439466</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03246504552654756</v>
+        <v>0.03341260503757058</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.08785214652800005</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.468572318186352</v>
+        <v>-1.467292640640735</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2918757605895508</v>
+        <v>-0.2927934137372692</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05938706857727453</v>
+        <v>0.06042749521645428</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.07246421321900871</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.248003444699365</v>
+        <v>-1.246798533062009</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3751933147373602</v>
+        <v>-0.376872793139788</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08392287864010965</v>
+        <v>0.08503098810150533</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.03707185132172845</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9483928400075825</v>
+        <v>-0.9479489666153758</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4172731419262127</v>
+        <v>-0.4194673245813059</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1250897747386078</v>
+        <v>0.1263127875958585</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.01927815668866003</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7454970532145599</v>
+        <v>-0.7456654732605391</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5188571879767165</v>
+        <v>-0.521707736605392</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1243515597707178</v>
+        <v>0.1255745726279685</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.09679883302086868</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5184322028139654</v>
+        <v>-0.519283747158589</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6404060925617983</v>
+        <v>-0.6438531944374468</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1372522204888983</v>
+        <v>0.1384579191358146</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1961519081697539</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2703258647998231</v>
+        <v>-0.2716039683263193</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7757685889554148</v>
+        <v>-0.7792109687736994</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2010188831310317</v>
+        <v>0.2021899533572794</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3179589107893941</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04437541993710942</v>
+        <v>-0.04598249345995742</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8905397672041757</v>
+        <v>-0.8941419099632724</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2648485065380172</v>
+        <v>0.2660872595864808</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4609521827110213</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3053385744143561</v>
+        <v>0.3036921504134756</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.030819499332736</v>
+        <v>-1.034233546806837</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3005031876737204</v>
+        <v>0.3015215780452019</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6207600159101752</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5717287185415271</v>
+        <v>0.5699374847814869</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.177307949885266</v>
+        <v>-1.180191552915489</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3257520283985047</v>
+        <v>0.3264068203529658</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7895607045074911</v>
       </c>
       <c r="E17" t="n">
-        <v>0.822712363509407</v>
+        <v>0.8208361327168165</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.311025596297123</v>
+        <v>-1.313534582776477</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3562329086824925</v>
+        <v>0.3566201173863325</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9574139065358001</v>
       </c>
       <c r="E18" t="n">
-        <v>1.062984808356836</v>
+        <v>1.060870900676929</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.510297204063351</v>
+        <v>-1.512617308248148</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4063795838680112</v>
+        <v>0.4066219828126915</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.112886105439006</v>
       </c>
       <c r="E19" t="n">
-        <v>1.332899181296599</v>
+        <v>1.331189796530866</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.715006260884112</v>
+        <v>-1.717159519042051</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4421287061509924</v>
+        <v>0.4422703678719094</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.249846804690278</v>
       </c>
       <c r="E20" t="n">
-        <v>1.627232886884221</v>
+        <v>1.625577018768613</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.917525070097583</v>
+        <v>-1.919344636201807</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5073119860022964</v>
+        <v>0.5075055903542164</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.366364606230458</v>
       </c>
       <c r="E21" t="n">
-        <v>1.827035726103888</v>
+        <v>1.82592446860425</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.1458995044071</v>
+        <v>-2.147495559796099</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5814939331700766</v>
+        <v>0.5816780934072687</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.458865583800338</v>
       </c>
       <c r="E22" t="n">
-        <v>1.960799019070263</v>
+        <v>1.959922290419698</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.314863373992683</v>
+        <v>-2.316368136272646</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6435307487979006</v>
+        <v>0.6437353712836696</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.521956786299067</v>
       </c>
       <c r="E23" t="n">
-        <v>2.157290122058713</v>
+        <v>2.156989484406544</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.467167038188859</v>
+        <v>-2.468572637264181</v>
       </c>
       <c r="G23" t="n">
-        <v>0.700889579597219</v>
+        <v>0.7011241084462927</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.555311704825179</v>
       </c>
       <c r="E24" t="n">
-        <v>2.262442469457205</v>
+        <v>2.262730514956403</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.707585866814568</v>
+        <v>-2.709170904069718</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7483242198367365</v>
+        <v>0.748446993328198</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.565027554658589</v>
       </c>
       <c r="E25" t="n">
-        <v>2.40543895858913</v>
+        <v>2.406462071017976</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.867430656620896</v>
+        <v>-2.869104625956399</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7900357265512047</v>
+        <v>0.7904748778860475</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.557208067445092</v>
       </c>
       <c r="E26" t="n">
-        <v>2.553248798193993</v>
+        <v>2.554751986454835</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.038480888551763</v>
+        <v>-3.040198930422663</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8206787308046865</v>
+        <v>0.821026589030494</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.532787423868882</v>
       </c>
       <c r="E27" t="n">
-        <v>2.604239147628528</v>
+        <v>2.606150006841788</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.157790750936794</v>
+        <v>-3.160120299236319</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8622107993393264</v>
+        <v>0.8626027301005303</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.490745711396611</v>
       </c>
       <c r="E28" t="n">
-        <v>2.619052241579089</v>
+        <v>2.620959952754105</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.244656931193576</v>
+        <v>-3.247314662479893</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8872550175783417</v>
+        <v>0.8878767551312554</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.432036482239269</v>
       </c>
       <c r="E29" t="n">
-        <v>2.62701677833287</v>
+        <v>2.629168462471688</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.335025303995252</v>
+        <v>-3.338315790968331</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8873856611654096</v>
+        <v>0.8880892477126311</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.360374063655178</v>
       </c>
       <c r="E30" t="n">
-        <v>2.623818371478388</v>
+        <v>2.626267545231131</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.369020181967544</v>
+        <v>-3.372903287139792</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8977552991365385</v>
+        <v>0.8983345381731772</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.282158600993108</v>
       </c>
       <c r="E31" t="n">
-        <v>2.6136439118783</v>
+        <v>2.616159194434138</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.446576826131392</v>
+        <v>-3.451130463449315</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8620471013507112</v>
+        <v>0.8627491138788113</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.20302849099601</v>
       </c>
       <c r="E32" t="n">
-        <v>2.577214813334917</v>
+        <v>2.579657691011175</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.488886460111955</v>
+        <v>-3.494201135675027</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8584850960792078</v>
+        <v>0.8592610875060089</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.127151368926268</v>
       </c>
       <c r="E33" t="n">
-        <v>2.509758649872455</v>
+        <v>2.51208819817198</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.526224554697889</v>
+        <v>-3.532094072001219</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8705908771411313</v>
+        <v>0.8716800983730714</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.056106484299053</v>
       </c>
       <c r="E34" t="n">
-        <v>2.452036220656116</v>
+        <v>2.454343732687942</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.545832110891932</v>
+        <v>-3.551755931854947</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8651652332300078</v>
+        <v>0.8664228745079271</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9888845030689654</v>
       </c>
       <c r="E35" t="n">
-        <v>2.393144295232651</v>
+        <v>2.395239314683102</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.516584474589483</v>
+        <v>-3.522777452822241</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8170632088830588</v>
+        <v>0.8184373275759543</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9237584640709534</v>
       </c>
       <c r="E36" t="n">
-        <v>2.307536543263349</v>
+        <v>2.309799982759779</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.497774159080379</v>
+        <v>-3.504012783867654</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8086296144311297</v>
+        <v>0.8101028963286672</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.859837943362303</v>
       </c>
       <c r="E37" t="n">
-        <v>2.158837382854951</v>
+        <v>2.160741945991725</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.443229674469946</v>
+        <v>-3.449479317391071</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7631782382844511</v>
+        <v>0.7646247618569264</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7969155678302619</v>
       </c>
       <c r="E38" t="n">
-        <v>2.074339314366167</v>
+        <v>2.076366650994402</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.401502427564265</v>
+        <v>-3.407693044768341</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7553002725823411</v>
+        <v>0.7565594878793817</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7365524956307656</v>
       </c>
       <c r="E39" t="n">
-        <v>1.991240548876218</v>
+        <v>1.993083725267261</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.292573221284212</v>
+        <v>-3.298598566480551</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7014751147103429</v>
+        <v>0.7026666471851675</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6793010741776264</v>
       </c>
       <c r="E40" t="n">
-        <v>1.866745080496061</v>
+        <v>1.868585108848862</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.211144490081963</v>
+        <v>-3.217025025519142</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6680240603444606</v>
+        <v>0.6691856864559805</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6251726268568604</v>
       </c>
       <c r="E41" t="n">
-        <v>1.759093190732943</v>
+        <v>1.76057749076433</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.153779363206159</v>
+        <v>-3.159607169002776</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6226167567331783</v>
+        <v>0.6236131108369617</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5754173046196336</v>
       </c>
       <c r="E42" t="n">
-        <v>1.626442729285328</v>
+        <v>1.627519358364298</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.093559752653877</v>
+        <v>-3.099234878595727</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5764570719819143</v>
+        <v>0.5773731511105114</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5279503170003645</v>
       </c>
       <c r="E43" t="n">
-        <v>1.504989839866646</v>
+        <v>1.505894900861394</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.990703899153362</v>
+        <v>-2.996045333041496</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5224886783698777</v>
+        <v>0.5233339266380161</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4795077073875773</v>
       </c>
       <c r="E44" t="n">
-        <v>1.315599137134383</v>
+        <v>1.316150043826838</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.937480016585701</v>
+        <v>-2.942660900523462</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4774040486784621</v>
+        <v>0.478131245512503</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4269638041716898</v>
       </c>
       <c r="E45" t="n">
-        <v>1.135169325259685</v>
+        <v>1.135491999179552</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.825325645126103</v>
+        <v>-2.830220844593347</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4318062887535025</v>
+        <v>0.4324201562108097</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3701963095949924</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9647408308817319</v>
+        <v>0.9645204682047498</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.668628893562377</v>
+        <v>-2.673114848058083</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3751447484249203</v>
+        <v>0.3757586158822276</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3110040754679948</v>
       </c>
       <c r="E47" t="n">
-        <v>0.891031089450342</v>
+        <v>0.8906501768229873</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.624505989554076</v>
+        <v>-2.628951019552629</v>
       </c>
       <c r="G47" t="n">
-        <v>0.339672653507288</v>
+        <v>0.3402314302953497</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2522563953919146</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7482108904600028</v>
+        <v>0.7474380470714442</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.548736644102464</v>
+        <v>-2.553038438360979</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3481865229344034</v>
+        <v>0.3486571546516724</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1973705714825733</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6143185279256811</v>
+        <v>0.6132356027702263</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.491400636580404</v>
+        <v>-2.495656784284401</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3045861932743744</v>
+        <v>0.3049970122650338</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1485680372774653</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4836056840163868</v>
+        <v>0.4821890668072162</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.432077429917702</v>
+        <v>-2.436301310229713</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2593126812884027</v>
+        <v>0.2595456361183552</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.106523789930945</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3711813682774852</v>
+        <v>0.3695695726972733</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.403965448411272</v>
+        <v>-2.408132664034916</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2425430815700652</v>
+        <v>0.242777610419139</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.07068528574371109</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2158130888521369</v>
+        <v>0.214007688920005</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.407485742176061</v>
+        <v>-2.411734019784452</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2276261023574985</v>
+        <v>0.2278795194360279</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.03994003526777207</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1605539995606336</v>
+        <v>0.1583535208290553</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.320602247708945</v>
+        <v>-2.324523916349666</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1909184024296452</v>
+        <v>0.191121450896293</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.01297594241835962</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0579515631386483</v>
+        <v>0.05569284569958181</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.27926929259315</v>
+        <v>-2.283019393149649</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1679644815837173</v>
+        <v>0.1681596599547586</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.01133261609753598</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.02958278823512555</v>
+        <v>-0.03193752084059138</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.239520587722943</v>
+        <v>-2.243029863353883</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1513475617201459</v>
+        <v>0.15147348324985</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.03462244186557301</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.0688215109100304</v>
+        <v>-0.07126596260541036</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.214815570604569</v>
+        <v>-2.218073790185661</v>
       </c>
       <c r="G56" t="n">
-        <v>0.122798002897994</v>
+        <v>0.1229207763894555</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.05754398700664809</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1388354554446063</v>
+        <v>-0.1414420311094802</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.190135737792135</v>
+        <v>-2.193251508642749</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1214726787978588</v>
+        <v>0.1216930414748409</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.08044698328505312</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2159592443500974</v>
+        <v>-0.2185311915943027</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.173851722972718</v>
+        <v>-2.176849442389235</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1075945522053507</v>
+        <v>0.1078306550735458</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1040600420231777</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2909801437095308</v>
+        <v>-0.2934025591372125</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.168322193799589</v>
+        <v>-2.171226259078389</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08716378401086776</v>
+        <v>0.08739516482169897</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.128527291312543</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3315331723507217</v>
+        <v>-0.3340248446197407</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.179295468103737</v>
+        <v>-2.182260920128267</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06056128684176484</v>
+        <v>0.0607123926774097</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1539364714815777</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3586881502314012</v>
+        <v>-0.3610948254678699</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.129325870069364</v>
+        <v>-2.131919066571707</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02304296706644164</v>
+        <v>0.02306342931501855</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1804078157885989</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4002642913014375</v>
+        <v>-0.4027512415130926</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.112147812389049</v>
+        <v>-2.114571014826292</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05832617968951787</v>
+        <v>0.05838599241612729</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2078118357568986</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.4109471590777053</v>
+        <v>-0.4133994808686918</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.138146673225133</v>
+        <v>-2.140402242625957</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02731328094253041</v>
+        <v>0.02732115103813692</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2356909965280438</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.3979079846768504</v>
+        <v>-0.4005712250300912</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.109761599401157</v>
+        <v>-2.11164097823199</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01031387443248298</v>
+        <v>0.01026193180148006</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.264339634626813</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4519220248434048</v>
+        <v>-0.4544939720876101</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.119847913930452</v>
+        <v>-2.121709978550951</v>
       </c>
       <c r="G65" t="n">
-        <v>0.009926665728643013</v>
+        <v>0.00992036965215781</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2941562536215832</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4714162516607138</v>
+        <v>-0.4739944949814043</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.10876052324001</v>
+        <v>-2.110522637646306</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.02308208926415371</v>
+        <v>-0.02302385055666558</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3247867715712837</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.4941812902120857</v>
+        <v>-0.4965360228175515</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.140017394950799</v>
+        <v>-2.141903856867678</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.02315764218197615</v>
+        <v>-0.0230537569199703</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3562643620121357</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.4399217030626084</v>
+        <v>-0.4423472665285327</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.172520102796098</v>
+        <v>-2.174329437776033</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.04499873150914449</v>
+        <v>-0.04493577074429246</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.388621301000637</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.4040498072881657</v>
+        <v>-0.4063195428610813</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.197990093207425</v>
+        <v>-2.19987183306694</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.0743116896051272</v>
+        <v>-0.07427391314621598</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4210594226422954</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3259186461450421</v>
+        <v>-0.3280341278440703</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.207160328608123</v>
+        <v>-2.209037346410274</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.08239427779300623</v>
+        <v>-0.08235964937233761</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4526014934806116</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.2719848809536741</v>
+        <v>-0.274125546958643</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.232620087895161</v>
+        <v>-2.234527012060617</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.0873791963501655</v>
+        <v>-0.08742956496204712</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4822095229105997</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2117251329137985</v>
+        <v>-0.2139334817409834</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.284856273464207</v>
+        <v>-2.286829306432757</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.07187983006271763</v>
+        <v>-0.07200260355417909</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5085266428365277</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.08408634834840446</v>
+        <v>-0.08628997511822543</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.29454121311757</v>
+        <v>-2.296485126732376</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.087371326254559</v>
+        <v>-0.08750354386074825</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5297271581873513</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.01064419016763568</v>
+        <v>-0.01280689244030282</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.338703467603903</v>
+        <v>-2.340632428037057</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07540091083706728</v>
+        <v>-0.07556775686392514</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5441829741237046</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0856448555588126</v>
+        <v>0.0833483616608349</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.369271705949123</v>
+        <v>-2.371236868822067</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.08030555441904022</v>
+        <v>-0.08052749111514361</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5514625921647072</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2223751745688395</v>
+        <v>0.2200755326326191</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.393485629101652</v>
+        <v>-2.395372878028092</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.09053982674573728</v>
+        <v>-0.09087194478033173</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5513704287059289</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3664042202443376</v>
+        <v>0.3640730979256913</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.333422633451939</v>
+        <v>-2.335001374630604</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.09780077695229736</v>
+        <v>-0.0983343694344183</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5439988503311662</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5502118771533467</v>
+        <v>0.5478177940698483</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.328710020202765</v>
+        <v>-2.330122702364132</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.07366476774627262</v>
+        <v>-0.07409604898550901</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5297231600526392</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6706211918946067</v>
+        <v>0.6682145166581379</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.261693795084706</v>
+        <v>-2.262975833659006</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.06132130979703262</v>
+        <v>-0.0619792497897363</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5094419783697446</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8256636493618458</v>
+        <v>0.8233120647946225</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.241743889731781</v>
+        <v>-2.242840194049767</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.04086850533485148</v>
+        <v>-0.04150598307897826</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4842925429126594</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9487031500547992</v>
+        <v>0.946241384149085</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.202729464781661</v>
+        <v>-2.203725031875884</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.01326808004284392</v>
+        <v>-0.01397481462830793</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4559651189093808</v>
       </c>
       <c r="E82" t="n">
-        <v>1.10050470215128</v>
+        <v>1.098116915144267</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.147118582216547</v>
+        <v>-2.148088965004829</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.01737469593031742</v>
+        <v>-0.01816485352921036</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4256941115696998</v>
       </c>
       <c r="E83" t="n">
-        <v>1.169366464689064</v>
+        <v>1.16697710366293</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.091008735589981</v>
+        <v>-2.091780791968979</v>
       </c>
       <c r="G83" t="n">
-        <v>0.00973463539584433</v>
+        <v>0.008835870477581637</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3941428251883776</v>
       </c>
       <c r="E84" t="n">
-        <v>1.305813460257257</v>
+        <v>1.303356416408906</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.009908974384084</v>
+        <v>-2.010577932510637</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03860214608049894</v>
+        <v>0.03771125125784276</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3624264818480823</v>
       </c>
       <c r="E85" t="n">
-        <v>1.315742372874421</v>
+        <v>1.313275884911343</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.855353675834888</v>
+        <v>-1.855703895089377</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0542919686816242</v>
+        <v>0.05339005572511891</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.332065236999513</v>
       </c>
       <c r="E86" t="n">
-        <v>1.360134434152465</v>
+        <v>1.357567208965623</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.761308394365854</v>
+        <v>-1.761479175440515</v>
       </c>
       <c r="G86" t="n">
-        <v>0.07376415923123501</v>
+        <v>0.07290946684836873</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3041222484409852</v>
       </c>
       <c r="E87" t="n">
-        <v>1.370307319733431</v>
+        <v>1.367448901009149</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.571641451277803</v>
+        <v>-1.571632007163075</v>
       </c>
       <c r="G87" t="n">
-        <v>0.06793714044417987</v>
+        <v>0.06706355983185798</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2785228861727572</v>
       </c>
       <c r="E88" t="n">
-        <v>1.363918376120071</v>
+        <v>1.360771911896592</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.424797272403858</v>
+        <v>-1.424724867524279</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09671020998155644</v>
+        <v>0.09577996468086773</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2550825426949132</v>
       </c>
       <c r="E89" t="n">
-        <v>1.375529915177907</v>
+        <v>1.372311046074847</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.231073295030655</v>
+        <v>-1.231112645508688</v>
       </c>
       <c r="G89" t="n">
-        <v>0.09033228450204604</v>
+        <v>0.08945712987060286</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2338357410739765</v>
       </c>
       <c r="E90" t="n">
-        <v>1.315581822924049</v>
+        <v>1.312399156260779</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.065464447202124</v>
+        <v>-1.065401486437273</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09974019679006026</v>
+        <v>0.09886661617773837</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2154788816603302</v>
       </c>
       <c r="E91" t="n">
-        <v>1.254001472841402</v>
+        <v>1.250914821344531</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8748428615170046</v>
+        <v>-0.8748302693640343</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06745391657394055</v>
+        <v>0.06657089184689087</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.2015543395309596</v>
       </c>
       <c r="E92" t="n">
-        <v>1.239054587265531</v>
+        <v>1.235996268112843</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7093213717497062</v>
+        <v>-0.7094693295471085</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04999489648047332</v>
+        <v>0.04905835510329942</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1929547017540091</v>
       </c>
       <c r="E93" t="n">
-        <v>1.218521507828163</v>
+        <v>1.215641052836183</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.533972493598567</v>
+        <v>-0.5340606386693599</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03170794232920193</v>
+        <v>0.03092880286415809</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1878497876017733</v>
       </c>
       <c r="E94" t="n">
-        <v>1.185980236514393</v>
+        <v>1.183135983962202</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4011819444491558</v>
+        <v>-0.4016494281281821</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01202483321733683</v>
+        <v>0.01112449427995284</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1819140433619706</v>
       </c>
       <c r="E95" t="n">
-        <v>1.153135179510211</v>
+        <v>1.150623044992615</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2654873300209448</v>
+        <v>-0.265964257814699</v>
       </c>
       <c r="G95" t="n">
-        <v>0.006358364380654354</v>
+        <v>0.005555614628791003</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1700219297336904</v>
       </c>
       <c r="E96" t="n">
-        <v>1.121805902919842</v>
+        <v>1.11922608558003</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1569964880661736</v>
+        <v>-0.1576119295426022</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02862106255201083</v>
+        <v>-0.02942223828475288</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1520487237834174</v>
       </c>
       <c r="E97" t="n">
-        <v>1.068308141025075</v>
+        <v>1.065832208947269</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.07517897414096388</v>
+        <v>-0.07576923131145163</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05912870116106076</v>
+        <v>-0.05992515483643891</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1326121494529235</v>
       </c>
       <c r="E98" t="n">
-        <v>1.004879892494021</v>
+        <v>1.002709320125747</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.06472591315640601</v>
+        <v>-0.06515562037652109</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08427995270032446</v>
+        <v>-0.08501816766821448</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1174170192033214</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9510767708897206</v>
+        <v>0.9491485974661273</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.002467160832478602</v>
+        <v>-0.002945662645354011</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1210647795651215</v>
+        <v>-0.121862807259621</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1094772249262024</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9278033241621687</v>
+        <v>0.9263158760925395</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04532320772845288</v>
+        <v>0.04507293868816607</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.122747406005792</v>
+        <v>-0.1234730288207116</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.10771532918855</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8645718280212774</v>
+        <v>0.8633802955464528</v>
       </c>
       <c r="F101" t="n">
-        <v>0.07066334156227265</v>
+        <v>0.07033594558504211</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.15370049202617</v>
+        <v>-0.1543190815408411</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1080471390577057</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7999835273978251</v>
+        <v>0.7991697595121126</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1141597859602959</v>
+        <v>0.1139693296466185</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1455250367101342</v>
+        <v>-0.1460869615364385</v>
       </c>
     </row>
   </sheetData>
